--- a/svatprj.xlsx
+++ b/svatprj.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N356"/>
+  <dimension ref="A1:N358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
       <selection activeCell="J357" sqref="J357"/>
@@ -20400,6 +20400,114 @@
         <v>389</v>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Accountant</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Sayli</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Mustafazade</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>1</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Newp</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>12</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1900</v>
+      </c>
+      <c r="I358" t="n">
+        <v>760</v>
+      </c>
+      <c r="J358" t="n">
+        <v>38</v>
+      </c>
+      <c r="K358" t="n">
+        <v>15</v>
+      </c>
+      <c r="L358" t="n">
+        <v>23</v>
+      </c>
+      <c r="M358" t="n">
+        <v>3</v>
+      </c>
+      <c r="N358" t="n">
+        <v>681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/svatprj.xlsx
+++ b/svatprj.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N358"/>
+  <dimension ref="A1:N359"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
       <selection activeCell="J357" sqref="J357"/>
@@ -20508,6 +20508,60 @@
         <v>681</v>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Accountant</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Hotz</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>13</v>
+      </c>
+      <c r="H359" t="n">
+        <v>1300</v>
+      </c>
+      <c r="I359" t="n">
+        <v>563</v>
+      </c>
+      <c r="J359" t="n">
+        <v>28</v>
+      </c>
+      <c r="K359" t="n">
+        <v>11</v>
+      </c>
+      <c r="L359" t="n">
+        <v>17</v>
+      </c>
+      <c r="M359" t="n">
+        <v>2</v>
+      </c>
+      <c r="N359" t="n">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
